--- a/jumia_database_design.xlsx
+++ b/jumia_database_design.xlsx
@@ -5,47 +5,35 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Techcamp2023\sql_postgres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Techcamp2023\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A943E2D1-6475-4C84-ABF9-E2D74DFF7739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2831A0A2-E61B-44FD-8FB6-769EB9B2CF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="10905" activeTab="2" xr2:uid="{AB812CAD-C9C4-4A2D-81E0-3623A2E11703}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="3" activeTab="7" xr2:uid="{AB812CAD-C9C4-4A2D-81E0-3623A2E11703}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
-    <sheet name="Stock" sheetId="2" r:id="rId2"/>
-    <sheet name="Vendors" sheetId="3" r:id="rId3"/>
-    <sheet name="Orders" sheetId="4" r:id="rId4"/>
-    <sheet name="Payment" sheetId="5" r:id="rId5"/>
-    <sheet name="Delivery" sheetId="6" r:id="rId6"/>
-    <sheet name="customer" sheetId="7" r:id="rId7"/>
-    <sheet name="Discounts" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Vendors" sheetId="3" r:id="rId2"/>
+    <sheet name="Orders" sheetId="4" r:id="rId3"/>
+    <sheet name="Payment" sheetId="5" r:id="rId4"/>
+    <sheet name="Delivery" sheetId="6" r:id="rId5"/>
+    <sheet name="cart" sheetId="7" r:id="rId6"/>
+    <sheet name="Discounts" sheetId="8" r:id="rId7"/>
+    <sheet name="customer" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
   <si>
     <t>id</t>
   </si>
@@ -68,9 +56,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>customer_id</t>
   </si>
   <si>
@@ -80,26 +65,314 @@
     <t>delivery_id</t>
   </si>
   <si>
-    <t>batch</t>
-  </si>
-  <si>
     <t>brand</t>
   </si>
   <si>
-    <t>stock_id</t>
-  </si>
-  <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>prd_001</t>
+  </si>
+  <si>
+    <t>pro_002</t>
+  </si>
+  <si>
+    <t>pr0_003</t>
+  </si>
+  <si>
+    <t>pro_004</t>
+  </si>
+  <si>
+    <t>pro_005</t>
+  </si>
+  <si>
+    <t>corelle</t>
+  </si>
+  <si>
+    <t>dinnerware</t>
+  </si>
+  <si>
+    <t>sports shoes</t>
+  </si>
+  <si>
+    <t>Air Jordan</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Sneakers</t>
+  </si>
+  <si>
+    <t>Guess</t>
+  </si>
+  <si>
+    <t>Silver-Tone</t>
+  </si>
+  <si>
+    <t>Fridge</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>watches</t>
+  </si>
+  <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t>Bikes</t>
+  </si>
+  <si>
+    <t>Cycling</t>
+  </si>
+  <si>
+    <t>Ladies watches</t>
+  </si>
+  <si>
+    <t>Dinner set</t>
+  </si>
+  <si>
+    <t>Mountain bikes</t>
+  </si>
+  <si>
+    <t>Sside-by-side</t>
+  </si>
+  <si>
+    <t>30 piece ceramicware</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>vr-001</t>
+  </si>
+  <si>
+    <t>vr-002</t>
+  </si>
+  <si>
+    <t>vr-003</t>
+  </si>
+  <si>
+    <t>vr-004</t>
+  </si>
+  <si>
+    <t>vr-005</t>
+  </si>
+  <si>
+    <t>Skyweb</t>
+  </si>
+  <si>
+    <t>Lanways</t>
+  </si>
+  <si>
+    <t>Elecsun</t>
+  </si>
+  <si>
+    <t>Medcom</t>
+  </si>
+  <si>
+    <t>Jewshine</t>
+  </si>
+  <si>
+    <t>0721 999999</t>
+  </si>
+  <si>
+    <t>0789 111111</t>
+  </si>
+  <si>
+    <t>0723 333333</t>
+  </si>
+  <si>
+    <t>0745 787878</t>
+  </si>
+  <si>
+    <t>0715 433433</t>
+  </si>
+  <si>
+    <t>or-001</t>
+  </si>
+  <si>
+    <t>or_002</t>
+  </si>
+  <si>
+    <t>or_003</t>
+  </si>
+  <si>
+    <t>or_004</t>
+  </si>
+  <si>
+    <t>or_005</t>
+  </si>
+  <si>
+    <t>batch_id</t>
+  </si>
+  <si>
+    <t>dy_001</t>
+  </si>
+  <si>
+    <t>dy_003</t>
+  </si>
+  <si>
+    <t>dy_002</t>
+  </si>
+  <si>
+    <t>dy_004</t>
+  </si>
+  <si>
+    <t>dy_005</t>
+  </si>
+  <si>
+    <t>pickup_point</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>cart_id</t>
+  </si>
+  <si>
+    <t>session_id</t>
+  </si>
+  <si>
+    <t>ct_001</t>
+  </si>
+  <si>
+    <t>ct_002</t>
+  </si>
+  <si>
+    <t>ct_003</t>
+  </si>
+  <si>
+    <t>ct_004</t>
+  </si>
+  <si>
+    <t>ct_005</t>
+  </si>
+  <si>
+    <t>disc_perc</t>
+  </si>
+  <si>
+    <t>payment_id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>cst_001</t>
+  </si>
+  <si>
+    <t>cst_002</t>
+  </si>
+  <si>
+    <t>cst_003</t>
+  </si>
+  <si>
+    <t>cst_004</t>
+  </si>
+  <si>
+    <t>cst_005</t>
+  </si>
+  <si>
+    <t>Faith</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Erick</t>
+  </si>
+  <si>
+    <t>Fridah</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>Kamau</t>
+  </si>
+  <si>
+    <t>Ngure</t>
+  </si>
+  <si>
+    <t>Mutisya</t>
+  </si>
+  <si>
+    <t>Mzalando</t>
+  </si>
+  <si>
+    <t>pendo</t>
+  </si>
+  <si>
+    <t>fpendo</t>
+  </si>
+  <si>
+    <t>gmza</t>
+  </si>
+  <si>
+    <t>fngure</t>
+  </si>
+  <si>
+    <t>jkama</t>
+  </si>
+  <si>
+    <t>emutis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,14 +395,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,64 +720,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94BCF64-080E-4197-8AD7-B5698BF44BEB}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>600</v>
+      </c>
+      <c r="G3" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>300</v>
+      </c>
+      <c r="G5" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>250</v>
+      </c>
+      <c r="G6" s="3">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8D79C9-EB31-4621-A779-0B12E43FEC29}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEBECAD-6852-404B-9A93-C5B9CBCF56CF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216AAE2C-613F-47ED-BC3A-DE2B4192F029}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -507,16 +975,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216AAE2C-613F-47ED-BC3A-DE2B4192F029}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1775F0-02FD-41F6-ACF4-7C95537692C9}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -525,42 +1049,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1775F0-02FD-41F6-ACF4-7C95537692C9}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549928BA-F16A-497E-89A8-EBA08DE55180}">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -603,8 +1091,137 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8B720C-C7FA-4F09-9A62-B8DD2A32FA8E}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8B720C-C7FA-4F09-9A62-B8DD2A32FA8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938D1026-9E2E-4B94-8249-FEC0A0C8C727}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFF948A-5A7E-4B12-A9FD-43454C99A9B1}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -618,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -632,32 +1249,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938D1026-9E2E-4B94-8249-FEC0A0C8C727}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ADB9B9-8ABA-4390-97C1-EABC4CD16EA1}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFF948A-5A7E-4B12-A9FD-43454C99A9B1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>2345</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>3456</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>4567</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6">
+        <v>5678</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ADB9B9-8ABA-4390-97C1-EABC4CD16EA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8D79C9-EB31-4621-A779-0B12E43FEC29}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/jumia_database_design.xlsx
+++ b/jumia_database_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Techcamp2023\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2831A0A2-E61B-44FD-8FB6-769EB9B2CF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D26F05-637D-4DA3-9A70-7968EA0FCA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="3" activeTab="7" xr2:uid="{AB812CAD-C9C4-4A2D-81E0-3623A2E11703}"/>
+    <workbookView xWindow="13785" yWindow="4545" windowWidth="15015" windowHeight="10905" xr2:uid="{AB812CAD-C9C4-4A2D-81E0-3623A2E11703}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
   <si>
     <t>id</t>
   </si>
@@ -342,6 +342,39 @@
   </si>
   <si>
     <t>emutis</t>
+  </si>
+  <si>
+    <t>dis_001</t>
+  </si>
+  <si>
+    <t>dis_002</t>
+  </si>
+  <si>
+    <t>dis_003</t>
+  </si>
+  <si>
+    <t>dis_004</t>
+  </si>
+  <si>
+    <t>dis_005</t>
+  </si>
+  <si>
+    <t>py_001</t>
+  </si>
+  <si>
+    <t>py_002</t>
+  </si>
+  <si>
+    <t>py_003</t>
+  </si>
+  <si>
+    <t>py_004</t>
+  </si>
+  <si>
+    <t>py_005</t>
+  </si>
+  <si>
+    <t>py_006</t>
   </si>
 </sst>
 </file>
@@ -404,7 +437,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,7 +755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94BCF64-080E-4197-8AD7-B5698BF44BEB}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -891,7 +924,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,16 +934,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1050,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549928BA-F16A-497E-89A8-EBA08DE55180}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,29 +1097,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1222,30 +1286,60 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFF948A-5A7E-4B12-A9FD-43454C99A9B1}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1253,7 +1347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ADB9B9-8ABA-4390-97C1-EABC4CD16EA1}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>

--- a/jumia_database_design.xlsx
+++ b/jumia_database_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Techcamp2023\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D26F05-637D-4DA3-9A70-7968EA0FCA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AE28BC-E56A-4B07-9078-7B7BC6748DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13785" yWindow="4545" windowWidth="15015" windowHeight="10905" xr2:uid="{AB812CAD-C9C4-4A2D-81E0-3623A2E11703}"/>
+    <workbookView xWindow="13785" yWindow="4545" windowWidth="15015" windowHeight="10905" firstSheet="2" activeTab="2" xr2:uid="{AB812CAD-C9C4-4A2D-81E0-3623A2E11703}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="cart" sheetId="7" r:id="rId6"/>
     <sheet name="Discounts" sheetId="8" r:id="rId7"/>
     <sheet name="customer" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId9"/>
+    <sheet name="sessions" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
   <si>
     <t>id</t>
   </si>
@@ -375,6 +375,45 @@
   </si>
   <si>
     <t>py_006</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Mombasa</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>ss_001</t>
+  </si>
+  <si>
+    <t>ss_002</t>
+  </si>
+  <si>
+    <t>ss_003</t>
+  </si>
+  <si>
+    <t>ss_004</t>
+  </si>
+  <si>
+    <t>ss_005</t>
+  </si>
+  <si>
+    <t>modified_at</t>
+  </si>
+  <si>
+    <t>closed_at</t>
   </si>
 </sst>
 </file>
@@ -755,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94BCF64-080E-4197-8AD7-B5698BF44BEB}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -924,7 +963,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +983,7 @@
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -957,6 +996,9 @@
       <c r="C2" t="s">
         <v>51</v>
       </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -968,6 +1010,9 @@
       <c r="C3" t="s">
         <v>52</v>
       </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -979,6 +1024,9 @@
       <c r="C4" t="s">
         <v>53</v>
       </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -990,6 +1038,9 @@
       <c r="C5" t="s">
         <v>54</v>
       </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1000,6 +1051,9 @@
       </c>
       <c r="C6" t="s">
         <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1775F0-02FD-41F6-ACF4-7C95537692C9}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1469,12 +1523,63 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8D79C9-EB31-4621-A779-0B12E43FEC29}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jumia_database_design.xlsx
+++ b/jumia_database_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Techcamp2023\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AE28BC-E56A-4B07-9078-7B7BC6748DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1181CDF8-99B7-439A-9E0D-21ECF9FCB6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13785" yWindow="4545" windowWidth="15015" windowHeight="10905" firstSheet="2" activeTab="2" xr2:uid="{AB812CAD-C9C4-4A2D-81E0-3623A2E11703}"/>
+    <workbookView xWindow="13785" yWindow="4545" windowWidth="15015" windowHeight="10905" firstSheet="2" activeTab="4" xr2:uid="{AB812CAD-C9C4-4A2D-81E0-3623A2E11703}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -236,9 +236,6 @@
     <t>dy_005</t>
   </si>
   <si>
-    <t>pickup_point</t>
-  </si>
-  <si>
     <t>created_at</t>
   </si>
   <si>
@@ -414,6 +411,15 @@
   </si>
   <si>
     <t>closed_at</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>door-to-door</t>
+  </si>
+  <si>
+    <t>pick-up-point</t>
   </si>
 </sst>
 </file>
@@ -983,7 +989,7 @@
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,7 +1003,7 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,7 +1017,7 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,7 +1031,7 @@
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,7 +1045,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,7 +1059,7 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1775F0-02FD-41F6-ACF4-7C95537692C9}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1090,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1099,7 +1105,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -1175,32 +1181,32 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1213,15 +1219,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8B720C-C7FA-4F09-9A62-B8DD2A32FA8E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1229,16 +1235,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>67</v>
@@ -1248,10 +1254,16 @@
       <c r="A2" t="s">
         <v>62</v>
       </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1292,10 +1304,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1304,32 +1316,32 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1362,32 +1374,32 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1412,107 +1424,107 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <v>1234</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3">
         <v>2345</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4">
         <v>3456</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>4567</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>5678</v>
       </c>
       <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
         <v>92</v>
-      </c>
-      <c r="E6" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1537,44 +1549,44 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/jumia_database_design.xlsx
+++ b/jumia_database_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Techcamp2023\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1181CDF8-99B7-439A-9E0D-21ECF9FCB6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE055A8-4276-4C3B-9F94-559853057B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13785" yWindow="4545" windowWidth="15015" windowHeight="10905" firstSheet="2" activeTab="4" xr2:uid="{AB812CAD-C9C4-4A2D-81E0-3623A2E11703}"/>
+    <workbookView xWindow="14505" yWindow="4755" windowWidth="15015" windowHeight="10905" firstSheet="2" activeTab="4" xr2:uid="{AB812CAD-C9C4-4A2D-81E0-3623A2E11703}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="134">
   <si>
     <t>id</t>
   </si>
@@ -420,6 +420,21 @@
   </si>
   <si>
     <t>pick-up-point</t>
+  </si>
+  <si>
+    <t>G4S</t>
+  </si>
+  <si>
+    <t>EMS</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Bolt</t>
+  </si>
+  <si>
+    <t>Fedex</t>
   </si>
 </sst>
 </file>
@@ -1217,68 +1232,98 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8B720C-C7FA-4F09-9A62-B8DD2A32FA8E}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
       <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
       <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
